--- a/common/Level.xlsx
+++ b/common/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>关卡场景ID</t>
+    <t>章节ID</t>
   </si>
   <si>
     <t>据点顺序</t>
@@ -84,6 +84,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">levelbg_id </t>
     </r>
     <r>
@@ -203,6 +210,12 @@
   <si>
     <t>73,80</t>
   </si>
+  <si>
+    <t>81,88</t>
+  </si>
+  <si>
+    <t>89,96</t>
+  </si>
 </sst>
 </file>
 
@@ -211,8 +224,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -236,15 +249,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -260,9 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,50 +310,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +362,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -335,9 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,36 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,43 +428,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,13 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,91 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +627,24 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,27 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +703,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -706,15 +728,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,137 +748,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +889,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1203,12 +1219,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1473,6 +1489,210 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>97104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>105112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>113120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>121128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>129136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>137144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>145152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>153160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
